--- a/SchedulingData/dynamic11/pso/scheduling2_3.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling2_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,192 +462,192 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>260.94</v>
+        <v>250.88</v>
       </c>
       <c r="D2" t="n">
-        <v>308.06</v>
+        <v>288.38</v>
       </c>
       <c r="E2" t="n">
-        <v>10.884</v>
+        <v>11.012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>200.6</v>
+        <v>201.58</v>
       </c>
       <c r="D3" t="n">
-        <v>244.4</v>
+        <v>238.9</v>
       </c>
       <c r="E3" t="n">
-        <v>12.28</v>
+        <v>14.66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>216.52</v>
+        <v>238.9</v>
       </c>
       <c r="D4" t="n">
-        <v>255.38</v>
+        <v>279.06</v>
       </c>
       <c r="E4" t="n">
-        <v>13.652</v>
+        <v>12.284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>236.58</v>
+        <v>234.58</v>
       </c>
       <c r="D5" t="n">
-        <v>284.18</v>
+        <v>291.8</v>
       </c>
       <c r="E5" t="n">
-        <v>12.232</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>244.4</v>
+        <v>240.72</v>
       </c>
       <c r="D6" t="n">
-        <v>293.7</v>
+        <v>284.32</v>
       </c>
       <c r="E6" t="n">
-        <v>8.98</v>
+        <v>10.288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>284.18</v>
+        <v>272.28</v>
       </c>
       <c r="D7" t="n">
-        <v>318.36</v>
+        <v>320.54</v>
       </c>
       <c r="E7" t="n">
-        <v>9.944000000000001</v>
+        <v>10.116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>255.38</v>
+        <v>204.84</v>
       </c>
       <c r="D8" t="n">
-        <v>302.86</v>
+        <v>247.04</v>
       </c>
       <c r="E8" t="n">
-        <v>9.544</v>
+        <v>13.996</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>308.06</v>
+        <v>288.38</v>
       </c>
       <c r="D9" t="n">
-        <v>358.98</v>
+        <v>332.14</v>
       </c>
       <c r="E9" t="n">
-        <v>7.412</v>
+        <v>8.256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>302.86</v>
+        <v>332.14</v>
       </c>
       <c r="D10" t="n">
-        <v>371.64</v>
+        <v>381.44</v>
       </c>
       <c r="E10" t="n">
-        <v>6.736</v>
+        <v>4.956</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>255.34</v>
+        <v>284.32</v>
       </c>
       <c r="D11" t="n">
-        <v>304.72</v>
+        <v>353.4</v>
       </c>
       <c r="E11" t="n">
-        <v>8.868</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="12">
@@ -656,36 +656,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>318.36</v>
+        <v>247.04</v>
       </c>
       <c r="D12" t="n">
-        <v>393.78</v>
+        <v>318.24</v>
       </c>
       <c r="E12" t="n">
-        <v>6.512</v>
+        <v>9.976000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>250.12</v>
+        <v>320.54</v>
       </c>
       <c r="D13" t="n">
-        <v>299.98</v>
+        <v>394.52</v>
       </c>
       <c r="E13" t="n">
-        <v>12.672</v>
+        <v>7.828</v>
       </c>
     </row>
     <row r="14">
@@ -694,55 +694,55 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>299.98</v>
+        <v>279.06</v>
       </c>
       <c r="D14" t="n">
-        <v>344.36</v>
+        <v>326.72</v>
       </c>
       <c r="E14" t="n">
-        <v>9.864000000000001</v>
+        <v>9.148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>393.78</v>
+        <v>326.72</v>
       </c>
       <c r="D15" t="n">
-        <v>467.18</v>
+        <v>369.62</v>
       </c>
       <c r="E15" t="n">
-        <v>3.272</v>
+        <v>6.988</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>358.98</v>
+        <v>353.4</v>
       </c>
       <c r="D16" t="n">
-        <v>406</v>
+        <v>405.3</v>
       </c>
       <c r="E16" t="n">
-        <v>4.82</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="17">
@@ -751,17 +751,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>344.36</v>
+        <v>369.62</v>
       </c>
       <c r="D17" t="n">
-        <v>396.36</v>
+        <v>416.82</v>
       </c>
       <c r="E17" t="n">
-        <v>6.784</v>
+        <v>4.908</v>
       </c>
     </row>
     <row r="18">
@@ -770,74 +770,74 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>304.72</v>
+        <v>291.8</v>
       </c>
       <c r="D18" t="n">
-        <v>368.02</v>
+        <v>361.08</v>
       </c>
       <c r="E18" t="n">
-        <v>5.628</v>
+        <v>8.192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>371.64</v>
+        <v>416.82</v>
       </c>
       <c r="D19" t="n">
-        <v>436.1</v>
+        <v>480.62</v>
       </c>
       <c r="E19" t="n">
-        <v>4.36</v>
+        <v>1.668</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>436.1</v>
+        <v>480.62</v>
       </c>
       <c r="D20" t="n">
-        <v>490.2</v>
+        <v>583.58</v>
       </c>
       <c r="E20" t="n">
-        <v>1.06</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>490.2</v>
+        <v>361.08</v>
       </c>
       <c r="D21" t="n">
-        <v>574.6799999999999</v>
+        <v>423.98</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>6.032</v>
       </c>
     </row>
     <row r="22">
@@ -846,41 +846,41 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>368.02</v>
+        <v>423.98</v>
       </c>
       <c r="D22" t="n">
-        <v>443.32</v>
+        <v>469.94</v>
       </c>
       <c r="E22" t="n">
-        <v>3.208</v>
+        <v>3.056</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>293.7</v>
+        <v>394.52</v>
       </c>
       <c r="D23" t="n">
-        <v>330.9</v>
+        <v>472.72</v>
       </c>
       <c r="E23" t="n">
-        <v>5.9</v>
+        <v>4.588</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -888,94 +888,94 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>396.36</v>
+        <v>381.44</v>
       </c>
       <c r="D24" t="n">
-        <v>451.32</v>
+        <v>421.6</v>
       </c>
       <c r="E24" t="n">
-        <v>4.408</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>443.32</v>
+        <v>583.58</v>
       </c>
       <c r="D25" t="n">
-        <v>482.7</v>
+        <v>642.88</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>482.7</v>
+        <v>421.6</v>
       </c>
       <c r="D26" t="n">
-        <v>573.6</v>
+        <v>471.66</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>573.6</v>
+        <v>471.66</v>
       </c>
       <c r="D27" t="n">
-        <v>636.5</v>
+        <v>552.95</v>
       </c>
       <c r="E27" t="n">
-        <v>27.84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>451.32</v>
+        <v>405.3</v>
       </c>
       <c r="D28" t="n">
-        <v>483.16</v>
+        <v>488.66</v>
       </c>
       <c r="E28" t="n">
-        <v>1.864</v>
+        <v>1.644</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>483.16</v>
+        <v>488.66</v>
       </c>
       <c r="D29" t="n">
-        <v>571.03</v>
+        <v>586.67</v>
       </c>
       <c r="E29" t="n">
         <v>30</v>
@@ -994,94 +994,94 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>330.9</v>
+        <v>586.67</v>
       </c>
       <c r="D30" t="n">
-        <v>395.4</v>
+        <v>654.47</v>
       </c>
       <c r="E30" t="n">
-        <v>3.04</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>574.6799999999999</v>
+        <v>318.24</v>
       </c>
       <c r="D31" t="n">
-        <v>620.08</v>
+        <v>350.34</v>
       </c>
       <c r="E31" t="n">
-        <v>27.14</v>
+        <v>7.896</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>636.5</v>
+        <v>654.47</v>
       </c>
       <c r="D32" t="n">
-        <v>689.2</v>
+        <v>688.21</v>
       </c>
       <c r="E32" t="n">
-        <v>25.2</v>
+        <v>25.116</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>395.4</v>
+        <v>469.94</v>
       </c>
       <c r="D33" t="n">
-        <v>459.06</v>
+        <v>509.84</v>
       </c>
       <c r="E33" t="n">
-        <v>0.284</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>459.06</v>
+        <v>509.84</v>
       </c>
       <c r="D34" t="n">
-        <v>545.1900000000001</v>
+        <v>605.85</v>
       </c>
       <c r="E34" t="n">
         <v>30</v>
@@ -1089,21 +1089,21 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>571.03</v>
+        <v>350.34</v>
       </c>
       <c r="D35" t="n">
-        <v>628.55</v>
+        <v>410.64</v>
       </c>
       <c r="E35" t="n">
-        <v>27.408</v>
+        <v>5.476</v>
       </c>
     </row>
     <row r="36">
@@ -1112,36 +1112,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>545.1900000000001</v>
+        <v>552.95</v>
       </c>
       <c r="D36" t="n">
-        <v>578.29</v>
+        <v>588.03</v>
       </c>
       <c r="E36" t="n">
-        <v>27.88</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>467.18</v>
+        <v>588.03</v>
       </c>
       <c r="D37" t="n">
-        <v>533.78</v>
+        <v>635.15</v>
       </c>
       <c r="E37" t="n">
-        <v>1.192</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="38">
@@ -1150,74 +1150,93 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>533.78</v>
+        <v>410.64</v>
       </c>
       <c r="D38" t="n">
-        <v>603.3</v>
+        <v>467.48</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>2.932</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>406</v>
+        <v>467.48</v>
       </c>
       <c r="D39" t="n">
-        <v>457.7</v>
+        <v>517.28</v>
       </c>
       <c r="E39" t="n">
-        <v>2.74</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>628.55</v>
+        <v>517.28</v>
       </c>
       <c r="D40" t="n">
-        <v>686.11</v>
+        <v>593.9400000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>24.272</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>578.29</v>
+        <v>605.85</v>
       </c>
       <c r="D41" t="n">
-        <v>626.73</v>
+        <v>665.63</v>
       </c>
       <c r="E41" t="n">
-        <v>25.636</v>
+        <v>27.192</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>pond20</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>593.9400000000001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>651.46</v>
+      </c>
+      <c r="E42" t="n">
+        <v>27.408</v>
       </c>
     </row>
   </sheetData>
